--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -1,162 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>159869</t>
-  </si>
-  <si>
-    <t>516010</t>
-  </si>
-  <si>
-    <t>161030</t>
-  </si>
-  <si>
-    <t>516770</t>
-  </si>
-  <si>
-    <t>159804</t>
-  </si>
-  <si>
-    <t>华夏中证动漫游戏ETF</t>
-  </si>
-  <si>
-    <t>国泰中证动漫游戏ETF</t>
-  </si>
-  <si>
-    <t>富国中证体育产业指数</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证动漫游戏ETF</t>
-  </si>
-  <si>
-    <t>国寿安保国证创业板中盘精选88ETF</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>98.62</t>
-  </si>
-  <si>
-    <t>98.03</t>
-  </si>
-  <si>
-    <t>94.22</t>
-  </si>
-  <si>
-    <t>98.51</t>
-  </si>
-  <si>
-    <t>98.14</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>1.76</t>
-  </si>
-  <si>
-    <t>0.1967</t>
-  </si>
-  <si>
-    <t>0.1189</t>
-  </si>
-  <si>
-    <t>0.1180</t>
-  </si>
-  <si>
-    <t>0.1177</t>
-  </si>
-  <si>
-    <t>0.0394</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,167 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,243 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1967</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1189</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1180</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1177</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0394</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -701,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -762,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1634</t>
+          <t>0.2780</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -790,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.1921</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -828,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1355</t>
+          <t>0.0825</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -876,26 +746,64 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>96.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0502</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -970,22 +878,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2320</t>
+          <t>0.2734</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1008,22 +916,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2234</t>
+          <t>0.2128</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1046,26 +954,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1084,22 +992,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1178,22 +1086,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2734</t>
+          <t>0.2320</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1216,22 +1124,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2128</t>
+          <t>0.2234</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1254,26 +1162,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1058</t>
+          <t>0.1270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1292,22 +1200,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0484</t>
+          <t>0.0586</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1325,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1254,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1386,26 +1294,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2780</t>
+          <t>0.1634</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1414,36 +1322,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1921</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1452,36 +1360,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0825</t>
+          <t>0.1355</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1500,64 +1408,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.89</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0502</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013278</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1571,112 +1441,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.59</v>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +519,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -803,214 +1104,6 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2734</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2128</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1086,22 +1179,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2320</t>
+          <t>0.2734</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1124,22 +1217,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2234</t>
+          <t>0.2128</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1162,26 +1255,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1200,22 +1293,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1254,7 +1347,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1294,26 +1387,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1634</t>
+          <t>0.2320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1322,36 +1415,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.2234</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1360,36 +1453,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1355</t>
+          <t>0.1270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1408,26 +1501,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0586</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1436,6 +1529,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300315-掌趣科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -583,6 +600,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1104,214 +1367,6 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2734</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2128</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1387,22 +1442,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2320</t>
+          <t>0.2734</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1425,22 +1480,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2234</t>
+          <t>0.2128</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1463,26 +1518,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1501,22 +1556,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1555,7 +1610,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1595,26 +1650,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1634</t>
+          <t>0.2320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1623,36 +1678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.2234</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1661,36 +1716,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1355</t>
+          <t>0.1270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1709,26 +1764,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0586</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1737,6 +1792,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
